--- a/myapp/tmp/excel/templete.xlsx
+++ b/myapp/tmp/excel/templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\RefeynOne\myapp\tmp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C23272-815C-4AB4-967F-6AE25030208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F7F4B-6A9B-4F4E-95E9-E08072421B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="458" yWindow="2363" windowWidth="16199" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="878" yWindow="638" windowWidth="16935" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sheet" sheetId="1" r:id="rId1"/>
@@ -57,23 +57,109 @@
     <t>範囲最大値</t>
   </si>
   <si>
-    <t>割合%</t>
-  </si>
-  <si>
-    <t>平均値</t>
-  </si>
-  <si>
-    <t>中間値</t>
-  </si>
-  <si>
-    <t>モード値</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>平均値(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>kDa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(kDa)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>モード値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="3"/>
+      </rPr>
+      <t>(kDa)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>割合(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Source Sans Pro"/>
+        <family val="2"/>
+      </rPr>
+      <t>%)</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +179,26 @@
       <color theme="1"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -210,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,6 +349,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,31 +637,33 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="6.3125" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6875" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="9.8125" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="9.8125" customWidth="1"/>
-    <col min="13" max="13" width="16.4375" customWidth="1"/>
-    <col min="14" max="14" width="9.8125" customWidth="1"/>
-    <col min="15" max="15" width="13.3125" customWidth="1"/>
-    <col min="16" max="16" width="9.8125" customWidth="1"/>
-    <col min="17" max="17" width="15.8125" customWidth="1"/>
-    <col min="18" max="18" width="9.8125" customWidth="1"/>
-    <col min="19" max="19" width="13.9375" customWidth="1"/>
-    <col min="20" max="20" width="9.8125" customWidth="1"/>
-    <col min="21" max="21" width="16.125" customWidth="1"/>
-    <col min="22" max="22" width="9.8125" customWidth="1"/>
+    <col min="8" max="8" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30.4" customHeight="1" x14ac:dyDescent="0.7">
@@ -638,65 +749,65 @@
     <row r="3" spans="1:22" s="2" customFormat="1" ht="41.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/tmp/excel/templete.xlsx
+++ b/myapp/tmp/excel/templete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp3\htdocs\RefeynOne\myapp\tmp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39F7F4B-6A9B-4F4E-95E9-E08072421B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E00546-92C2-4BF0-96E8-9C256F7C81A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="878" yWindow="638" windowWidth="16935" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2843" yWindow="315" windowWidth="16199" windowHeight="10185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
   <si>
     <t>エリア1</t>
     <phoneticPr fontId="1"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>エリア4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エリア5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -152,6 +148,17 @@
       </rPr>
       <t>%)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全範囲</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲内データ数</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,11 +319,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,13 +362,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -342,16 +380,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,191 +681,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="6.3125" customWidth="1"/>
     <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.3125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.1875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.3125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:27" ht="30.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="6"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="15"/>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="41.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="41.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="S2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="41.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="41.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="M3" s="5"/>
+      <c r="N3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="Q3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="T3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="V3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="W3" s="5"/>
+      <c r="X3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="12" t="s">
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="AA3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
+  <mergeCells count="12">
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
